--- a/Bill of Materials/Sam_BOM_Part List.xlsx
+++ b/Bill of Materials/Sam_BOM_Part List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="9583" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="9583"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="99">
   <si>
     <t xml:space="preserve">Component Names </t>
   </si>
@@ -96,9 +96,6 @@
     <t>Push-pull four channel driver with diodes</t>
   </si>
   <si>
-    <t>DB15 Cable</t>
-  </si>
-  <si>
     <t>Buck</t>
   </si>
   <si>
@@ -166,6 +163,165 @@
   </si>
   <si>
     <t>DB15 Cable MM</t>
+  </si>
+  <si>
+    <t>L7805CD2T Volateg Regulator</t>
+  </si>
+  <si>
+    <t>L7805CD2T</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>http://au.mouser.com/ProductDetail/STMicroelectronics/L7805CD2T-TR/?qs=%2fha2pyFaduj2Hv%2fZGx1UWnCsernFroYrL%252b1BRzCOsKw2LpWRkFQSuA%3d%3d</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/stmicroelectronics/L293D/497-2936-5-ND/634700</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Sum Total</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/microchip-technology/ATMEGA324P-20AUR/ATMEGA324P-20AURCT-ND/3440935</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0402JR-071KL/311-1.0KJRTR-ND/726408</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0402JR-0710KP/YAG1281TR-ND/4935296</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/GRM1885C1H101JA01J-Murata-Capacitor-100pf-50-Volt-C0G-5-Surface-Mount-0603-Paper-Tape-and-Reel_1856644.html</t>
+  </si>
+  <si>
+    <t>Jameco</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/12063G105ZAT2A-AVX-Capacitor-1-uF-25-Volt-Y5-Volt-20-To-80-Surface-Mount-1206-Embossed-Tape-and-Reel_740324.html</t>
+  </si>
+  <si>
+    <t>http://www.jameco.com/z/6100-16-R-Socket-IC-16-Pin-Machine-Tooled-Low-Profile-0-3-Inch-Wide_37402.html</t>
+  </si>
+  <si>
+    <t>http://au.element14.com/molex/22-27-2031/header-square-pin-2-54mm-3way/dp/9731156</t>
+  </si>
+  <si>
+    <t>KK Style - Straight Header Male</t>
+  </si>
+  <si>
+    <t>Element14</t>
+  </si>
+  <si>
+    <t>http://au.element14.com/molex/22-27-2021/header-square-pin-2-54mm-2way/dp/9731148?MER=bn_level5_5NP_EngagementRecSingleItem_4</t>
+  </si>
+  <si>
+    <t>KK Style - Straight Header Female</t>
+  </si>
+  <si>
+    <t>Crimp</t>
+  </si>
+  <si>
+    <t>http://au.element14.com/molex/08-50-0113/contact-crimp-terminal-30-22awg/dp/2063734?MER=bn_level5_5NP_EngagementRecSingleItem_2</t>
+  </si>
+  <si>
+    <t>KK Style Crimp</t>
+  </si>
+  <si>
+    <t>http://au.element14.com/molex/22-27-2041/header-square-pin-2-54mm-4way/dp/9731164?ost=22-27-2041&amp;scope=partnumberlookahead&amp;exaMfpn=true&amp;searchref=searchlookahead&amp;searchView=table&amp;iscrfnonsku=false&amp;ddkey=http%3Aen-AU%2FElement14_Australia%2Fw%2Fsearch</t>
+  </si>
+  <si>
+    <t>Battery Pack</t>
+  </si>
+  <si>
+    <t>http://au.element14.com/molex/22-01-3047/housing-female-4way/dp/1462831?MER=bn_level5_5NP_EngagementRecSingleItem_3</t>
+  </si>
+  <si>
+    <t>http://au.element14.com/molex/22-01-3037/housing-female-3way/dp/1462838?ost=22-01-3037&amp;searchView=table&amp;iscrfnonsku=false&amp;ddkey=http%3Aen-AU%2FElement14_Australia%2Fsearch</t>
+  </si>
+  <si>
+    <t>http://au.element14.com/molex/22-01-3027/housing-square-pin-2-54mm-2way/dp/1462825?ost=22-01-3027&amp;searchView=table&amp;iscrfnonsku=false&amp;ddkey=http%3Aen-AU%2FElement14_Australia%2Fsearch</t>
+  </si>
+  <si>
+    <t>https://www.moddiy.com/products/0.100%22-%282.54-mm%29-Breakaway-Male-Header%3A-2x40%252dPin%2C-Straight.html</t>
+  </si>
+  <si>
+    <t>modDIY</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/amphenol-fci/10090769-P154ALF/609-4042-ND/2350290</t>
+  </si>
+  <si>
+    <t>DB15 Male Header</t>
+  </si>
+  <si>
+    <t>DB15 Backshell</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/cinch-connectivity-solutions-aim-cambridge/40-9709H/367-1139-ND/3830261</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/amphenol-fci/10090926-P154XLF/609-4022-ND/2350294</t>
+  </si>
+  <si>
+    <t>http://au.rs-online.com/web/p/visible-leds/6973617/?searchTerm=697-3617&amp;relevancy-data=636F3D3126696E3D4931384E525353746F636B4E756D6265724D504E266C753D656E266D6D3D6D61746368616C6C26706D3D5E283F69292852537C5253207C52532D293F5C647B337D285C73293F5B5C732D2F255C2E2C5D285C73293F5C647B332C347D2426706F3D313426736E3D592673743D52535F53544F434B5F4E554D4245522677633D4E4F4E45267573743D3639372D33363137267374613D3639373336313726</t>
+  </si>
+  <si>
+    <t>http://au.element14.com/omron-electronic-components/a8l-11-15n1/switch-rocker-spst-mini/dp/1829494?mckv=s|pcrid|59148083448&amp;gross_price=true&amp;CATCI=aud-112905144048:pla-173777534688&amp;CAAGID=12550800888&amp;CMP=KNC-GOO-SHOPPING-1829494&amp;CAGPSPN=pla&amp;gclid=CMW-5P6GkdQCFUd9vQodM9wPcA&amp;CAWELAID=120185580000129312</t>
+  </si>
+  <si>
+    <t>Rocker Switch, Non Illuminated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A8L-11-15N1</t>
+  </si>
+  <si>
+    <t>Buoy</t>
+  </si>
+  <si>
+    <t>Bolts</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Spiral Binding</t>
+  </si>
+  <si>
+    <t>Food Containers</t>
+  </si>
+  <si>
+    <t>Woolworths</t>
+  </si>
+  <si>
+    <t>25 mm Saddles</t>
+  </si>
+  <si>
+    <t>25m PVC Pipe</t>
+  </si>
+  <si>
+    <t>25m PVC Pipe Elbow Connector</t>
+  </si>
+  <si>
+    <t>EVA Foam Tiles</t>
+  </si>
+  <si>
+    <t>http://www.kmart.com.au/product/eva-solid-floor-tiles/764887</t>
+  </si>
+  <si>
+    <t>Kmart</t>
+  </si>
+  <si>
+    <t>http://au.rs-online.com/web/p/multicore-industrial-cable/6603999/</t>
+  </si>
+  <si>
+    <t>15 Core Unscreened PVC Cable</t>
   </si>
 </sst>
 </file>
@@ -175,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +360,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,12 +435,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -286,15 +459,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,11 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:H31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -626,7 +806,7 @@
     <col min="8" max="8" width="17.3046875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,496 +823,1336 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="I2" s="1">
+        <f>SUM(I3:I21)</f>
+        <v>15.562899999999997</v>
+      </c>
+      <c r="J2" s="4">
+        <f>I2+I22+I34+I43</f>
+        <v>37.707573333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <f>D3*F3</f>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.48E-3</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I21" si="0">D4*F4</f>
+        <v>1.48E-3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5">
+        <v>1.06E-3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>9.5399999999999999E-3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>2.84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>2.84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11">
+        <v>0.113</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.8879999999999999</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.29700000000000004</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5">
-        <v>3</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
+      <c r="B16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
         <v>4</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="5">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>38</v>
+      <c r="E16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
+        <f>2*2+3*3+4*4</f>
+        <v>29</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="F17" s="6">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.81788000000000005</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="H19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81788000000000005</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="5">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
-        <v>4</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="H21" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="5">
-        <v>3</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="1">
+        <f>SUM(I23:I33)</f>
+        <v>6.8330600000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23">
+        <v>1.06E-3</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I25" si="1">D23*F23</f>
+        <v>3.1799999999999997E-3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" s="6">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I24:I33" si="2">D26*F26</f>
+        <v>0.8879999999999999</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.29700000000000004</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" s="6">
         <v>5</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6"/>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>2.04</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6">
+        <v>5</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.69500000000000006</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+        <f>3*3+5*4</f>
+        <v>29</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.81788000000000005</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81788000000000005</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="2"/>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="1">
+        <f>SUM(I35:I42)</f>
+        <v>7.9782799999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="19">
+        <v>2.3719999999999999</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="3">
+        <f>D35*F35</f>
+        <v>4.7439999999999998</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" ref="I36:I42" si="3">D36*F36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="3"/>
+        <v>1.52</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.51214000000000004</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0242800000000001</v>
+      </c>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="3"/>
+        <v>0.69</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" s="1">
+        <f>SUM(I44:I50)</f>
+        <v>7.3333333333333339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="6">
+        <f>D44*F44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" ref="I45:I51" si="4">D45*F45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="5">
+        <v>10</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="5">
+        <f>5/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I52" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J9" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="J7" r:id="rId5"/>
+    <hyperlink ref="J6" r:id="rId6"/>
+    <hyperlink ref="J10" r:id="rId7"/>
+    <hyperlink ref="J13" r:id="rId8"/>
+    <hyperlink ref="J11" r:id="rId9"/>
+    <hyperlink ref="J17" r:id="rId10"/>
+    <hyperlink ref="J15" r:id="rId11"/>
+    <hyperlink ref="J16" r:id="rId12"/>
+    <hyperlink ref="J14" r:id="rId13"/>
+    <hyperlink ref="J12" r:id="rId14"/>
+    <hyperlink ref="J18" r:id="rId15"/>
+    <hyperlink ref="J42" r:id="rId16"/>
+    <hyperlink ref="J19" r:id="rId17"/>
+    <hyperlink ref="J26" r:id="rId18"/>
+    <hyperlink ref="J28" r:id="rId19"/>
+    <hyperlink ref="J29" r:id="rId20"/>
+    <hyperlink ref="J27" r:id="rId21"/>
+    <hyperlink ref="J23" r:id="rId22"/>
+    <hyperlink ref="J25" r:id="rId23"/>
+    <hyperlink ref="J24" r:id="rId24"/>
+    <hyperlink ref="J30" r:id="rId25"/>
+    <hyperlink ref="J31" r:id="rId26"/>
+    <hyperlink ref="J20"/>
+    <hyperlink ref="J32"/>
+    <hyperlink ref="J39"/>
+    <hyperlink ref="J35" r:id="rId27"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -1140,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -1167,12 +2187,12 @@
       <c r="D1" s="5">
         <v>1</v>
       </c>
-      <c r="E1" s="15">
-        <f>D1*4</f>
+      <c r="E1" s="14">
+        <f t="shared" ref="E1:E18" si="0">D1*4</f>
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -1186,15 +2206,15 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
-        <f>Sheet1!D5+Sheet1!D19</f>
+        <f>Sheet1!D5+Sheet1!D23</f>
         <v>12</v>
       </c>
-      <c r="E2" s="15">
-        <f>D2*4</f>
+      <c r="E2" s="14">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -1207,15 +2227,15 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <f>Sheet1!D6+Sheet1!D20</f>
+        <f>Sheet1!D6+Sheet1!D24</f>
         <v>6</v>
       </c>
-      <c r="E3" s="15">
-        <f>D3*4</f>
+      <c r="E3" s="14">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1229,15 +2249,15 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
-        <f>Sheet1!D7+Sheet1!D21</f>
+        <f>Sheet1!D7+Sheet1!D25</f>
         <v>9</v>
       </c>
-      <c r="E4" s="15">
-        <f>D4*4</f>
+      <c r="E4" s="14">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1253,12 +2273,12 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="14">
-        <f>D5*4</f>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1268,18 +2288,18 @@
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="15">
-        <f>D6*4</f>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1287,19 +2307,19 @@
         <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
-        <f>Sheet1!D12+Sheet1!D22</f>
+        <f>Sheet1!D13+Sheet1!D27</f>
         <v>6</v>
       </c>
-      <c r="E7" s="15">
-        <f>D7*4</f>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1309,19 +2329,19 @@
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
-        <f>Sheet1!D13+Sheet1!D23</f>
+        <f>Sheet1!D15+Sheet1!D29</f>
         <v>9</v>
       </c>
-      <c r="E8" s="15">
-        <f>D8*4</f>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1331,19 +2351,19 @@
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
-        <f>Sheet1!D14</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
-        <f>D9*4</f>
+        <f>Sheet1!D18</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1356,24 +2376,24 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="15">
-        <f>D10*4</f>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>44</v>
+      <c r="F10" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
@@ -1384,19 +2404,19 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="15">
-        <f>D11*4</f>
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>44</v>
+      <c r="F11" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>22</v>
@@ -1407,12 +2427,12 @@
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="15">
-        <f>D12*4</f>
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>44</v>
+      <c r="F12" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1426,58 +2446,58 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
-        <f>Sheet1!D15+Sheet1!D24</f>
+        <f>Sheet1!D19+Sheet1!D31</f>
         <v>2</v>
       </c>
-      <c r="E13" s="14">
-        <f>D13*4</f>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>44</v>
+      <c r="F13" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5">
+        <f>Sheet1!D20+Sheet1!D32</f>
+        <v>5</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="5">
-        <f>Sheet1!D16+Sheet1!D25</f>
-        <v>5</v>
-      </c>
-      <c r="E14" s="15">
-        <f>D14*4</f>
-        <v>20</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
-        <v>46</v>
+      <c r="A15" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="15">
-        <f>D15*4</f>
+      <c r="E15" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>44</v>
+      <c r="F15" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -1491,31 +2511,31 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="15">
-        <f>D16*4</f>
+      <c r="E16" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>44</v>
+      <c r="F16" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="14">
-        <f>D17*4</f>
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>44</v>
+      <c r="F17" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1529,12 +2549,12 @@
       <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="E18" s="14">
-        <f>D18*4</f>
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>44</v>
+      <c r="F18" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
